--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040921.xlsx_with_dialog_acts.xlsx
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2217,12 +2217,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2293,12 +2293,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2863,12 +2863,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3775,12 +3775,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4193,12 +4193,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4573,12 +4573,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5067,12 +5067,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5143,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5485,12 +5485,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5561,12 +5561,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5675,12 +5675,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5751,12 +5751,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6245,12 +6245,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6739,12 +6739,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7157,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7423,12 +7423,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7763,12 +7763,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8067,12 +8067,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8105,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8903,12 +8903,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9245,12 +9245,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10271,12 +10271,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11905,12 +11905,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12057,12 +12057,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12095,12 +12095,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12589,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12665,12 +12665,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12703,12 +12703,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13083,12 +13083,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13387,12 +13387,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13425,12 +13425,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13539,12 +13539,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13577,12 +13577,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13995,12 +13995,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14451,12 +14451,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14679,12 +14679,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14717,12 +14717,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15325,12 +15325,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15743,12 +15743,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15819,12 +15819,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16009,12 +16009,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16123,12 +16123,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16541,12 +16541,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17301,12 +17301,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17339,12 +17339,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17415,12 +17415,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17605,12 +17605,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17799,12 +17799,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18521,12 +18521,12 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18559,12 +18559,12 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18825,12 +18825,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19129,12 +19129,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
